--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,87 +55,81 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -148,49 +142,49 @@
     <t>cooking</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>little</t>
   </si>
   <si>
     <t>one</t>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3565891472868217</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +700,13 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8671875</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +778,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +804,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7445887445887446</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L8">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M8">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7050847457627119</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L10">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.704225352112676</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -914,7 +908,7 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L12">
         <v>29</v>
@@ -932,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -940,13 +934,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6444444444444445</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +986,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6380417335473515</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L15">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>451</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6057142857142858</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1070,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5301204819277109</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1096,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5263157894736842</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1116,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5147058823529411</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1142,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5142857142857142</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1174,13 +1168,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5128205128205128</v>
+        <v>0.51</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1229,10 +1223,10 @@
         <v>0.5</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1252,13 +1246,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4970059880239521</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L25">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1278,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.48</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1304,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4603174603174603</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1330,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4337349397590362</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L28">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1356,13 +1350,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4210526315789473</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1374,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1382,13 +1376,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4074074074074074</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1400,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1408,13 +1402,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3909774436090225</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1434,13 +1428,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3651960784313725</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L32">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="M32">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1452,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>259</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1460,13 +1454,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3579766536964981</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L33">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1478,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1486,13 +1480,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3164383561643835</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L34">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1504,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>499</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1512,13 +1506,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3063063063063063</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1530,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1538,13 +1532,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2980132450331126</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1556,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1564,13 +1558,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2949640287769784</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1582,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1590,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2932330827067669</v>
+        <v>0.2381465517241379</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1605,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>94</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1616,13 +1610,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2679425837320574</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L39">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="M39">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>153</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1642,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2421959095801938</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L40">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1660,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>704</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1668,13 +1662,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2013245033112583</v>
+        <v>0.1790281329923274</v>
       </c>
       <c r="L41">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M41">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1686,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>603</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1694,25 +1688,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1987179487179487</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L42">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="M42">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>625</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1720,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1818181818181818</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L43">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M43">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1738,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>261</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1746,13 +1740,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1540540540540541</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M44">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N44">
         <v>0.98</v>
@@ -1764,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1772,25 +1766,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1337719298245614</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L45">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>395</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1798,13 +1792,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.125</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1816,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1824,13 +1818,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1145584725536993</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1842,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1850,13 +1844,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1119221411192214</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1868,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1876,25 +1870,25 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1107011070110701</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>241</v>
+        <v>995</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1902,25 +1896,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1030927835051546</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>261</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1928,13 +1922,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.07929104477611941</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L51">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1946,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>987</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1954,77 +1948,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.06321839080459771</v>
+        <v>0.04683434518647007</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M52">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53">
-        <v>0.05545286506469501</v>
-      </c>
-      <c r="L53">
-        <v>30</v>
-      </c>
-      <c r="M53">
-        <v>31</v>
-      </c>
-      <c r="N53">
-        <v>0.97</v>
-      </c>
-      <c r="O53">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K54">
-        <v>0.0380952380952381</v>
-      </c>
-      <c r="L54">
-        <v>44</v>
-      </c>
-      <c r="M54">
-        <v>46</v>
-      </c>
-      <c r="N54">
-        <v>0.96</v>
-      </c>
-      <c r="O54">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1111</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
